--- a/Advanceselenium/src/test/resources/VtigerDatas.xlsx
+++ b/Advanceselenium/src/test/resources/VtigerDatas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Organization name</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Priya</t>
+  </si>
+  <si>
+    <t>mani</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1209,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -1214,28 +1217,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0"/>
+    <col min="2" max="2" customWidth="true" width="19.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="G2" t="s" s="0">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1243,18 +1243,18 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
     </row>
@@ -1278,15 +1278,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="21.1111111111111" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.8888888888889"/>
+    <col min="2" max="2" customWidth="true" width="21.1111111111111"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>11</v>
       </c>
     </row>

--- a/Advanceselenium/src/test/resources/VtigerDatas.xlsx
+++ b/Advanceselenium/src/test/resources/VtigerDatas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Organization name</t>
   </si>
